--- a/biology/Histoire de la zoologie et de la botanique/James_Small/James_Small.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/James_Small/James_Small.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">James Small est un botaniste britannique, né en 1889 à Brechin et mort le 28 novembre 1955.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il étudie la pharmacie au Birkbeck College de Londres et obtient son Bachelor of Sciences en 1913, son Master of Sciences en 1916 et son Doctorat of Sciences en 1919. Il se marie à Helen Pattison en 1917 dont il aura deux fils et une fille.
 Il est maître assistant de botanique à l’Armstrong College de Newcastle en 1916, puis au Bedford College de 1916 à 1920, il enseigne en parallèle de 1917 à 1920 à l’École de la Société de pharmacie. De 1920 à 1954, il enseigne la botanique à la Queen’s university de Belfast, puis professeur émérite en 1954-1955.
